--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H2">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I2">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J2">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1324.502151190507</v>
+        <v>39.27391296610666</v>
       </c>
       <c r="R2">
-        <v>1324.502151190507</v>
+        <v>353.46521669496</v>
       </c>
       <c r="S2">
-        <v>0.2854146843195278</v>
+        <v>0.007750283931383919</v>
       </c>
       <c r="T2">
-        <v>0.2854146843195278</v>
+        <v>0.00775028393138392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H3">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I3">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J3">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>1270.792405686791</v>
+        <v>34.08484292707556</v>
       </c>
       <c r="R3">
-        <v>1270.792405686791</v>
+        <v>306.76358634368</v>
       </c>
       <c r="S3">
-        <v>0.2738408638889258</v>
+        <v>0.006726276820683349</v>
       </c>
       <c r="T3">
-        <v>0.2738408638889258</v>
+        <v>0.006726276820683349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H4">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I4">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J4">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1757.647733954432</v>
+        <v>47.65661573816889</v>
       </c>
       <c r="R4">
-        <v>1757.647733954432</v>
+        <v>428.90954164352</v>
       </c>
       <c r="S4">
-        <v>0.3787524789451118</v>
+        <v>0.009404520081775882</v>
       </c>
       <c r="T4">
-        <v>0.3787524789451118</v>
+        <v>0.009404520081775882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.827513036506127</v>
+        <v>12.878362</v>
       </c>
       <c r="H5">
-        <v>0.827513036506127</v>
+        <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823987</v>
       </c>
       <c r="J5">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>87.53496666847154</v>
+        <v>1507.342252445806</v>
       </c>
       <c r="R5">
-        <v>87.53496666847154</v>
+        <v>13566.08027201225</v>
       </c>
       <c r="S5">
-        <v>0.01886275900431415</v>
+        <v>0.2974577666429268</v>
       </c>
       <c r="T5">
-        <v>0.01886275900431415</v>
+        <v>0.2974577666429268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.827513036506127</v>
+        <v>12.878362</v>
       </c>
       <c r="H6">
-        <v>0.827513036506127</v>
+        <v>38.635086</v>
       </c>
       <c r="I6">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823987</v>
       </c>
       <c r="J6">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>83.9853455687897</v>
+        <v>1308.184492752182</v>
       </c>
       <c r="R6">
-        <v>83.9853455687897</v>
+        <v>11773.66043476963</v>
       </c>
       <c r="S6">
-        <v>0.01809785727523126</v>
+        <v>0.2581561267453188</v>
       </c>
       <c r="T6">
-        <v>0.01809785727523126</v>
+        <v>0.2581561267453189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.878362</v>
+      </c>
+      <c r="H7">
+        <v>38.635086</v>
+      </c>
+      <c r="I7">
+        <v>0.9165616424823987</v>
+      </c>
+      <c r="J7">
+        <v>0.9165616424823989</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>142.0267893333333</v>
+      </c>
+      <c r="N7">
+        <v>426.080368</v>
+      </c>
+      <c r="O7">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="P7">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="Q7">
+        <v>1829.072406732406</v>
+      </c>
+      <c r="R7">
+        <v>16461.65166059165</v>
+      </c>
+      <c r="S7">
+        <v>0.3609477490941531</v>
+      </c>
+      <c r="T7">
+        <v>0.3609477490941532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.51047</v>
+      </c>
+      <c r="I8">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J8">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>117.044563</v>
+      </c>
+      <c r="N8">
+        <v>351.133689</v>
+      </c>
+      <c r="O8">
+        <v>0.3245365645427815</v>
+      </c>
+      <c r="P8">
+        <v>0.3245365645427815</v>
+      </c>
+      <c r="Q8">
+        <v>97.94562135820333</v>
+      </c>
+      <c r="R8">
+        <v>881.5105922238299</v>
+      </c>
+      <c r="S8">
+        <v>0.01932851396847074</v>
+      </c>
+      <c r="T8">
+        <v>0.01932851396847074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.827513036506127</v>
-      </c>
-      <c r="H7">
-        <v>0.827513036506127</v>
-      </c>
-      <c r="I7">
-        <v>0.06199197284643458</v>
-      </c>
-      <c r="J7">
-        <v>0.06199197284643458</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>140.373748387438</v>
-      </c>
-      <c r="N7">
-        <v>140.373748387438</v>
-      </c>
-      <c r="O7">
-        <v>0.403783835512001</v>
-      </c>
-      <c r="P7">
-        <v>0.403783835512001</v>
-      </c>
-      <c r="Q7">
-        <v>116.1611067738359</v>
-      </c>
-      <c r="R7">
-        <v>116.1611067738359</v>
-      </c>
-      <c r="S7">
-        <v>0.02503135656688917</v>
-      </c>
-      <c r="T7">
-        <v>0.02503135656688917</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.51047</v>
+      </c>
+      <c r="I9">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J9">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>101.5800373333333</v>
+      </c>
+      <c r="N9">
+        <v>304.740112</v>
+      </c>
+      <c r="O9">
+        <v>0.281657135515876</v>
+      </c>
+      <c r="P9">
+        <v>0.281657135515876</v>
+      </c>
+      <c r="Q9">
+        <v>85.00454544140445</v>
+      </c>
+      <c r="R9">
+        <v>765.04090897264</v>
+      </c>
+      <c r="S9">
+        <v>0.01677473194987376</v>
+      </c>
+      <c r="T9">
+        <v>0.01677473194987376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.51047</v>
+      </c>
+      <c r="I10">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J10">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>142.0267893333333</v>
+      </c>
+      <c r="N10">
+        <v>426.080368</v>
+      </c>
+      <c r="O10">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="P10">
+        <v>0.3938062999413425</v>
+      </c>
+      <c r="Q10">
+        <v>118.8513312725511</v>
+      </c>
+      <c r="R10">
+        <v>1069.66198145296</v>
+      </c>
+      <c r="S10">
+        <v>0.02345403076541355</v>
+      </c>
+      <c r="T10">
+        <v>0.02345403076541355</v>
       </c>
     </row>
   </sheetData>
